--- a/documents/daaw23php.xlsx
+++ b/documents/daaw23php.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php_daa_w23\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{997B34FB-D39A-4062-ADDE-C794628A81D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E88BE6-84D6-45B2-AC1E-143091425D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31965" yWindow="1245" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{83861F25-2436-4397-8697-63A559889C21}"/>
+    <workbookView xWindow="41520" yWindow="0" windowWidth="16185" windowHeight="14745" activeTab="2" xr2:uid="{83861F25-2436-4397-8697-63A559889C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Regeln" sheetId="1" r:id="rId1"/>
     <sheet name="Login Method" sheetId="2" r:id="rId2"/>
+    <sheet name="Register" sheetId="4" r:id="rId3"/>
+    <sheet name="MVC" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,19 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Prozeduale Methoden</t>
-  </si>
-  <si>
-    <t>1: Unterschied zwischen Funktionen und Prozeduren
-Der Unterschied zwischen einer Prozedur und einer Funktion besteht im
-Rückgabewert. Eine Funktion gibt einen Wert zurück und eine Prozedur nicht    ref: Olat : 8.3.1.5  Ziet 5</t>
-  </si>
-  <si>
-    <t>2: Für Funktionen gibt es keine Vorgaben, wie sie als Struktogramme dargestellt werden
-sollen. Ich habe hier die Variante gewählt, in der der Funktionskopf den ersten Block
-des Struktogramms erhält.         Ref: Olat 8.3.1.5  Zeit 7</t>
   </si>
   <si>
     <r>
@@ -116,23 +108,98 @@
     <t>return false</t>
   </si>
   <si>
-    <t>function login(email:string , passwd : string):false|int</t>
-  </si>
-  <si>
-    <t>user = getUserByEmail(email):null|User</t>
-  </si>
-  <si>
     <t>passVerified = verifyPass(passwd , user-&gt;password):bool</t>
   </si>
   <si>
-    <t>return user-&gt;id</t>
+    <t>user = getUserByEmail(email:string ):null|UserObject</t>
+  </si>
+  <si>
+    <t>function login(email:string , passwd : string):false|UserObject</t>
+  </si>
+  <si>
+    <t>return user</t>
+  </si>
+  <si>
+    <r>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Unterschied zwischen Funktionen und Prozeduren</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Der Unterschied zwischen einer Prozedur und einer Funktion besteht im
+Rückgabewert. Eine Funktion gibt einen Wert zurück und eine Prozedur nicht    ref: Olat : 8.3.1.5  Ziet 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Für Funktionen gibt es keine Vorgaben,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wie sie als Struktogramme dargestellt werden
+sollen. Ich habe hier die Variante gewählt, in der der Funktionskopf den ersten Block
+des Struktogramms erhält.         Ref: Olat 8.3.1.5  Zeit 7</t>
+    </r>
+  </si>
+  <si>
+    <t>View Schicht</t>
+  </si>
+  <si>
+    <t>Controller  Schicht</t>
+  </si>
+  <si>
+    <t>Model Schicht</t>
+  </si>
+  <si>
+    <t>Table Schicht</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>function regiser(email:string , passwd : string):false|UserObject</t>
+  </si>
+  <si>
+    <t>bitte selber logik zichnen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,8 +238,79 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +327,33 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -318,10 +483,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -344,7 +514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -368,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -383,23 +553,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,43 +613,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -479,15 +640,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,17 +658,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
+    <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -539,7 +742,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -560,8 +763,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809750" y="800100"/>
-          <a:ext cx="1857375" cy="819150"/>
+          <a:off x="1809750" y="1066800"/>
+          <a:ext cx="3295650" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -588,12 +791,12 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:to>
@@ -610,8 +813,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4171950" y="771525"/>
-          <a:ext cx="2695575" cy="819150"/>
+          <a:off x="5076825" y="1076325"/>
+          <a:ext cx="2676525" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1141,6 +1344,747 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB4F150-6556-4CB8-8BCE-3EA10639F310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="1066800"/>
+          <a:ext cx="3295650" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>809625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4888D217-D856-4673-AE84-71223FD337F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5076825" y="1076325"/>
+          <a:ext cx="2676525" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2085975" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32FDF64-43DD-4858-A7E0-C834D6E83567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314824" y="1219200"/>
+          <a:ext cx="2085975" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" b="1" baseline="0"/>
+            <a:t>user  Existed</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D3ECA2-156D-493D-B565-71E054E3FA26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1457325"/>
+          <a:ext cx="304800" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" b="1"/>
+            <a:t>ja</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF121F0-82E6-46CE-BD9C-8BB891693707}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619874" y="1485900"/>
+          <a:ext cx="619125" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" b="1"/>
+            <a:t>nein</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BEB1FD-9796-41C8-98D5-8DE59B2CBCFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5095875" y="1905000"/>
+          <a:ext cx="0" cy="2105025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphic 2" descr="Angel face outline outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B85535D-6E35-F690-C6CD-0F33884DF8DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="1038225"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Arrow: Left-Right 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCBFF0B6-9ADC-9C72-C3A4-A5247C1EAE3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="1371600"/>
+          <a:ext cx="2143125" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="LID4096" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Arrow: Up-Down 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA8C949B-1155-3792-525F-F55BDA76DE92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="1914525"/>
+          <a:ext cx="447675" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="LID4096" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Arrow: Up-Down 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF5F4E8D-1CC6-4563-BD31-63F609BF0BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="4562475"/>
+          <a:ext cx="447675" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="LID4096" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Arrow: Up-Down 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7381EC-42CC-47FE-B20B-595909D08792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="7258050"/>
+          <a:ext cx="447675" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="LID4096" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Arrow: Up-Down 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3F987C-0739-41C9-BAFA-0506E3360571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9191625" y="8553450"/>
+          <a:ext cx="447675" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="LID4096" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Graphic 11" descr="Database with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02477B79-E690-1299-74AD-DD742C3C4D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10001249" y="8439150"/>
+          <a:ext cx="1724025" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1440,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A5E59C-1F02-40E6-A47B-BAC720F6FC25}">
   <dimension ref="D2:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,9 +2396,9 @@
       </c>
     </row>
     <row r="3" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="4:14" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:14" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1469,7 +2413,7 @@
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D5" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1537,7 +2481,7 @@
     <row r="10" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1631,7 +2575,7 @@
     <row r="18" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -1782,7 +2726,7 @@
     <mergeCell ref="D19:N29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1790,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F011B0EA-F24D-455C-9CDD-5CE370CF0A9C}">
   <dimension ref="C2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,176 +2748,176 @@
   <sheetData>
     <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="27"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="28"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="28"/>
-      <c r="D5" s="53" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="3:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="35"/>
+      <c r="D5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="3:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="35"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="35"/>
+      <c r="D7" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="35"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="35"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="35"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="35"/>
+      <c r="D11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-    </row>
-    <row r="6" spans="3:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="28"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="28"/>
-      <c r="D7" s="56" t="s">
-        <v>8</v>
+      <c r="E11" s="29"/>
+      <c r="F11" s="47" t="s">
+        <v>3</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-    </row>
-    <row r="8" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="28"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="28"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="28"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="28"/>
-      <c r="D11" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="28"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="28"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="28"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="28"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="28"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="28"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="29"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="33"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1991,4 +2935,402 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60730CC6-3C00-417F-BED1-A3407EE5E186}">
+  <dimension ref="C2:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="34"/>
+      <c r="D3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="35"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="5" spans="3:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="35"/>
+      <c r="D5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="3:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="35"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="35"/>
+      <c r="D7" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="35"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="35"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="35"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
+    </row>
+    <row r="11" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="35"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+    </row>
+    <row r="12" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="35"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
+    </row>
+    <row r="13" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="35"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
+    </row>
+    <row r="14" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="35"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+    </row>
+    <row r="15" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="35"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+    </row>
+    <row r="16" spans="3:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="35"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="35"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+    </row>
+    <row r="18" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="36"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D7:G16"/>
+    <mergeCell ref="C3:C18"/>
+    <mergeCell ref="D3:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="H7:J16"/>
+    <mergeCell ref="D17:J18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F938E03-DD5F-4809-B276-BCA08C903996}">
+  <dimension ref="C5:P52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="P5" s="66"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I20" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+    </row>
+    <row r="23" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+    </row>
+    <row r="24" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I34" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+    </row>
+    <row r="48" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I48" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+    </row>
+    <row r="49" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+    </row>
+    <row r="50" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+    </row>
+    <row r="51" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+    </row>
+    <row r="52" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="70"/>
+      <c r="N52" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I6:N10"/>
+    <mergeCell ref="I20:N24"/>
+    <mergeCell ref="I34:N38"/>
+    <mergeCell ref="I48:N52"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/documents/daaw23php.xlsx
+++ b/documents/daaw23php.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php_daa_w23\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E88BE6-84D6-45B2-AC1E-143091425D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8795BD-D2BA-4C72-A3AD-CBC102CFE302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41520" yWindow="0" windowWidth="16185" windowHeight="14745" activeTab="2" xr2:uid="{83861F25-2436-4397-8697-63A559889C21}"/>
+    <workbookView xWindow="32595" yWindow="1335" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{83861F25-2436-4397-8697-63A559889C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Regeln" sheetId="1" r:id="rId1"/>
-    <sheet name="Login Method" sheetId="2" r:id="rId2"/>
-    <sheet name="Register" sheetId="4" r:id="rId3"/>
+    <sheet name="login() in UserModel" sheetId="2" r:id="rId2"/>
+    <sheet name="register() in UserModel" sheetId="4" r:id="rId3"/>
     <sheet name="MVC" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Prozeduale Methoden</t>
   </si>
@@ -192,7 +192,25 @@
     <t>function regiser(email:string , passwd : string):false|UserObject</t>
   </si>
   <si>
-    <t>bitte selber logik zichnen</t>
+    <t>found = getUserByEmail(email:string ):null|UserObject</t>
+  </si>
+  <si>
+    <t>password_hash(passwd)</t>
+  </si>
+  <si>
+    <t>set email</t>
+  </si>
+  <si>
+    <t>set password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_inserted_id : insert() </t>
+  </si>
+  <si>
+    <t>new_registered_user =  getUserByEmail(email:string ):null|UserObject</t>
+  </si>
+  <si>
+    <t>return new_registered_user</t>
   </si>
 </sst>
 </file>
@@ -491,8 +509,9 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -613,6 +632,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,19 +704,21 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,16 +731,16 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1400,12 +1430,12 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>809625</xdr:rowOff>
     </xdr:to>
@@ -1422,8 +1452,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5076825" y="1076325"/>
-          <a:ext cx="2676525" cy="800100"/>
+          <a:off x="5076825" y="1057275"/>
+          <a:ext cx="4257675" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1449,11 +1479,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2085975" cy="280205"/>
+    <xdr:ext cx="1228726" cy="280205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="TextBox 3">
@@ -1467,8 +1497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4314824" y="1219200"/>
-          <a:ext cx="2085975" cy="280205"/>
+          <a:off x="4314825" y="1219200"/>
+          <a:ext cx="1228726" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1497,7 +1527,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="de-DE" sz="1200" b="1" baseline="0"/>
-            <a:t>user  Existed</a:t>
+            <a:t>found   Exists</a:t>
           </a:r>
           <a:endParaRPr lang="de-DE" sz="1200" b="1"/>
         </a:p>
@@ -1565,10 +1595,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>828674</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
+      <xdr:rowOff>485775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="619125" cy="280205"/>
     <xdr:sp macro="" textlink="">
@@ -1584,7 +1614,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6619874" y="1485900"/>
+          <a:off x="7981949" y="1552575"/>
           <a:ext cx="619125" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1671,6 +1701,281 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{320125EA-DA65-4809-BE58-7F79E2F03CB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="2857500"/>
+          <a:ext cx="1400175" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3267075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C6684C-EE62-4882-94ED-9BDBD5D4C257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6457950" y="2838450"/>
+          <a:ext cx="3962400" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1543050" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4863B59E-82DE-43E2-B972-48BB2CD19DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5886450" y="2819400"/>
+          <a:ext cx="1543050" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" b="1" baseline="0"/>
+            <a:t>last_inserted_id &gt; 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10278692-A142-4FD4-87BA-48BEE2E9BD4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="2952750"/>
+          <a:ext cx="304800" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" b="1"/>
+            <a:t>ja</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1628774</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98A7C900-DBCC-49E0-AABF-9CFF0BF3BBE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8782049" y="2981325"/>
+          <a:ext cx="619125" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1200" b="1"/>
+            <a:t>nein</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2397,326 +2702,326 @@
     </row>
     <row r="3" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:14" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="18"/>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="17"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="18"/>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="17"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="18"/>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="17"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="20"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2748,176 +3053,176 @@
   <sheetData>
     <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="34"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="35"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="3:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="35"/>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="3:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="35"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="35"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="36"/>
+      <c r="D7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="41" t="s">
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="35"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="35"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="35"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="35"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="47" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="35"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="35"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="35"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="35"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="35"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="46"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="35"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="36"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2941,8 +3246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60730CC6-3C00-417F-BED1-A3407EE5E186}">
   <dimension ref="C2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:J5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2951,186 +3256,203 @@
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="34"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="35"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="3:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="35"/>
-      <c r="D5" s="21" t="s">
-        <v>5</v>
+      <c r="C5" s="36"/>
+      <c r="D5" s="22" t="s">
+        <v>16</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="3:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="35"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="35"/>
-      <c r="D7" s="74" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
+    </row>
+    <row r="7" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="36"/>
+      <c r="D7" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="41" t="s">
-        <v>16</v>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="75" t="s">
+        <v>17</v>
       </c>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="35"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="35"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="44"/>
-    </row>
-    <row r="10" spans="3:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="35"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
+    </row>
+    <row r="8" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="36"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
+    </row>
+    <row r="9" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="36"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+    </row>
+    <row r="10" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="36"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="35"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="44"/>
-    </row>
-    <row r="12" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="35"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
-    </row>
-    <row r="13" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="35"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
-    </row>
-    <row r="14" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="35"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
-    </row>
-    <row r="15" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="35"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="36"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
+    </row>
+    <row r="13" spans="3:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="36"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
+    </row>
+    <row r="14" spans="3:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="36"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="45"/>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="36"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="3:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="35"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="46"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="35"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="36"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
     <mergeCell ref="D7:G16"/>
     <mergeCell ref="C3:C18"/>
     <mergeCell ref="D3:J4"/>
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
-    <mergeCell ref="H7:J16"/>
     <mergeCell ref="D17:J18"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3148,49 +3470,49 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="P5" s="66"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -3198,130 +3520,130 @@
       </c>
     </row>
     <row r="20" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="67" t="s">
+      <c r="I20" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="67"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
     </row>
     <row r="21" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
     </row>
     <row r="22" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
     </row>
     <row r="23" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
     </row>
     <row r="24" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="67"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I34" s="68" t="s">
+      <c r="I34" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
     </row>
     <row r="37" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
     </row>
     <row r="38" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
     </row>
     <row r="48" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I48" s="69" t="s">
+      <c r="I48" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
     </row>
     <row r="49" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I49" s="70"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
     </row>
     <row r="50" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
     </row>
     <row r="51" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
     </row>
     <row r="52" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
-      <c r="L52" s="70"/>
-      <c r="M52" s="70"/>
-      <c r="N52" s="70"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/documents/daaw23php.xlsx
+++ b/documents/daaw23php.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php_daa_w23\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8795BD-D2BA-4C72-A3AD-CBC102CFE302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F3633B-359C-413E-8F6A-F37FF6E9ED0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32595" yWindow="1335" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{83861F25-2436-4397-8697-63A559889C21}"/>
+    <workbookView xWindow="32130" yWindow="3045" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{83861F25-2436-4397-8697-63A559889C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Regeln" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Prozeduale Methoden</t>
   </si>
@@ -204,20 +204,54 @@
     <t>set password</t>
   </si>
   <si>
-    <t xml:space="preserve">last_inserted_id : insert() </t>
+    <t>last_inserted_id = insert() :null|int</t>
   </si>
   <si>
-    <t>new_registered_user =  getUserByEmail(email:string ):null|UserObject</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new_registered_user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =  getUserByEmail(email:string ):null|UserObject</t>
+    </r>
   </si>
   <si>
-    <t>return new_registered_user</t>
+    <r>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new_registered_user</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +361,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -375,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -500,6 +542,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -509,9 +588,12 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -716,6 +798,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -731,16 +822,31 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1709,10 +1815,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5324475</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1728,7 +1834,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5086350" y="2857500"/>
-          <a:ext cx="1400175" cy="342900"/>
+          <a:ext cx="5334000" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1754,7 +1860,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1777,8 +1883,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6457950" y="2838450"/>
-          <a:ext cx="3962400" cy="381000"/>
+          <a:off x="10467975" y="2838450"/>
+          <a:ext cx="6067425" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1804,9 +1910,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:colOff>4181475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1543050" cy="280205"/>
     <xdr:sp macro="" textlink="">
@@ -1822,7 +1928,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5886450" y="2819400"/>
+          <a:off x="9277350" y="2857500"/>
           <a:ext cx="1543050" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2702,326 +2808,326 @@
     </row>
     <row r="3" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:14" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="4:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="16"/>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="18"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="18"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="18"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="18"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="18"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="18"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="18"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="18"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3040,7 +3146,7 @@
   <dimension ref="C2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,176 +3159,176 @@
   <sheetData>
     <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="35"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="36"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="3:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="36"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="3:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="36"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="36"/>
-      <c r="D7" s="54" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="45" t="s">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="36"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="36"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="36"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="36"/>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="51" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="48"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="36"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="36"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="36"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="36"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="36"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="36"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="37"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3246,197 +3352,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60730CC6-3C00-417F-BED1-A3407EE5E186}">
   <dimension ref="C2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="80.42578125" customWidth="1"/>
+    <col min="9" max="9" width="42.140625" customWidth="1"/>
     <col min="10" max="10" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="35"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="36"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="3:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="36"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="3:10" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="36"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="44"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
     </row>
     <row r="7" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="36"/>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="75" t="s">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="77"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="36"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="75" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="73"/>
     </row>
     <row r="9" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="36"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="75" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="3:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="36"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="75" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="76"/>
-      <c r="J10" s="77"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="3:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="36"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="36"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="3:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="36"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="75" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
+      <c r="I13" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="3:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="36"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="51" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="46"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="3:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="36"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="48"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="3:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="36"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="36"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="37"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3451,8 +3559,8 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J16"/>
+    <mergeCell ref="I13:J16"/>
+    <mergeCell ref="H14:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3464,7 +3572,7 @@
   <dimension ref="C5:P52"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="I34" sqref="I34:N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3473,46 +3581,46 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -3520,130 +3628,130 @@
       </c>
     </row>
     <row r="20" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="71" t="s">
+      <c r="I20" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
     </row>
     <row r="21" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
     </row>
     <row r="22" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
     </row>
     <row r="23" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
     </row>
     <row r="24" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I34" s="72" t="s">
+      <c r="I34" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
     </row>
     <row r="37" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
     </row>
     <row r="38" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
     </row>
     <row r="48" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I48" s="73" t="s">
+      <c r="I48" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="78"/>
     </row>
     <row r="49" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I49" s="74"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="74"/>
-      <c r="M49" s="74"/>
-      <c r="N49" s="74"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="78"/>
     </row>
     <row r="50" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="78"/>
+      <c r="N50" s="78"/>
     </row>
     <row r="51" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="78"/>
     </row>
     <row r="52" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
-      <c r="L52" s="74"/>
-      <c r="M52" s="74"/>
-      <c r="N52" s="74"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/documents/daaw23php.xlsx
+++ b/documents/daaw23php.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php_daa_w23\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F3633B-359C-413E-8F6A-F37FF6E9ED0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2B2D5B-87B5-4738-9088-629EC71D8C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32130" yWindow="3045" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{83861F25-2436-4397-8697-63A559889C21}"/>
+    <workbookView xWindow="5175" yWindow="1830" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{83861F25-2436-4397-8697-63A559889C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Regeln" sheetId="1" r:id="rId1"/>
@@ -807,6 +807,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,33 +847,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3352,8 +3352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60730CC6-3C00-417F-BED1-A3407EE5E186}">
   <dimension ref="C2:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:J10"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3466,9 +3466,9 @@
       <c r="E11" s="69"/>
       <c r="F11" s="69"/>
       <c r="G11" s="70"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="81"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="76"/>
     </row>
     <row r="12" spans="3:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="37"/>
@@ -3476,9 +3476,9 @@
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
       <c r="G12" s="70"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="3:10" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="37"/>
@@ -3500,7 +3500,7 @@
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>
       <c r="G14" s="70"/>
-      <c r="H14" s="85" t="s">
+      <c r="H14" s="80" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="53"/>
@@ -3512,7 +3512,7 @@
       <c r="E15" s="69"/>
       <c r="F15" s="69"/>
       <c r="G15" s="70"/>
-      <c r="H15" s="86"/>
+      <c r="H15" s="81"/>
       <c r="I15" s="53"/>
       <c r="J15" s="49"/>
     </row>
@@ -3522,7 +3522,7 @@
       <c r="E16" s="59"/>
       <c r="F16" s="59"/>
       <c r="G16" s="60"/>
-      <c r="H16" s="87"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="54"/>
       <c r="J16" s="51"/>
     </row>
@@ -3581,46 +3581,46 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I6" s="74" t="s">
+      <c r="I6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
@@ -3628,130 +3628,130 @@
       </c>
     </row>
     <row r="20" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
     </row>
     <row r="21" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
     </row>
     <row r="22" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
     </row>
     <row r="23" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
     </row>
     <row r="24" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
     </row>
     <row r="34" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I34" s="76" t="s">
+      <c r="I34" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
     </row>
     <row r="36" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
     </row>
     <row r="37" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
     </row>
     <row r="38" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
     </row>
     <row r="48" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I48" s="77" t="s">
+      <c r="I48" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="78"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="78"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
     </row>
     <row r="49" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="87"/>
     </row>
     <row r="50" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
     </row>
     <row r="51" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
     </row>
     <row r="52" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="4">
